--- a/src/Mockups/Indices Unicos Tablas Gastos Diarios.xlsx
+++ b/src/Mockups/Indices Unicos Tablas Gastos Diarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\angular project\GDFrontEnd\src\Mockups\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BD4D57-73E1-44D5-AE89-90E9FFF4E746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Estadia Salatiel\Front\GDFrontEnd\src\Mockups\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA3FC36-D150-463F-9F10-5B3D46B6253C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{D8AF8AC2-F417-48AF-A29B-1902F5444C1A}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{D8AF8AC2-F417-48AF-A29B-1902F5444C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="backup_accounts" sheetId="1" r:id="rId1"/>
@@ -255,15 +255,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
@@ -275,11 +275,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
@@ -287,19 +287,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,19 +331,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,11 +351,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,15 +363,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,19 +387,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,15 +415,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,11 +435,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1954,7 +1954,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2022,7 @@
                   <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2089,7 +2089,7 @@
                   <a14:compatExt spid="_x0000_s8194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2156,7 +2156,7 @@
                   <a14:compatExt spid="_x0000_s8195"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2223,7 +2223,7 @@
                   <a14:compatExt spid="_x0000_s8196"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2290,7 +2290,7 @@
                   <a14:compatExt spid="_x0000_s8197"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2357,7 +2357,7 @@
                   <a14:compatExt spid="_x0000_s8198"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2424,7 +2424,7 @@
                   <a14:compatExt spid="_x0000_s8199"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2491,7 +2491,7 @@
                   <a14:compatExt spid="_x0000_s8200"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2558,7 +2558,7 @@
                   <a14:compatExt spid="_x0000_s8201"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2625,7 +2625,7 @@
                   <a14:compatExt spid="_x0000_s8202"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2692,7 +2692,7 @@
                   <a14:compatExt spid="_x0000_s8203"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2759,7 +2759,7 @@
                   <a14:compatExt spid="_x0000_s8204"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2826,7 +2826,7 @@
                   <a14:compatExt spid="_x0000_s8205"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2893,7 +2893,7 @@
                   <a14:compatExt spid="_x0000_s8206"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
                   <a14:compatExt spid="_x0000_s8207"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3027,7 +3027,7 @@
                   <a14:compatExt spid="_x0000_s8208"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3094,7 +3094,7 @@
                   <a14:compatExt spid="_x0000_s8209"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3161,7 +3161,7 @@
                   <a14:compatExt spid="_x0000_s8210"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3228,7 +3228,7 @@
                   <a14:compatExt spid="_x0000_s8211"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3295,7 +3295,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3364,7 +3364,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3431,7 +3431,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3498,7 +3498,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3565,7 +3565,7 @@
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3632,7 +3632,7 @@
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3699,7 +3699,7 @@
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3766,7 +3766,7 @@
                   <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3833,7 +3833,7 @@
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3900,7 +3900,7 @@
                   <a14:compatExt spid="_x0000_s2057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3967,7 +3967,7 @@
                   <a14:compatExt spid="_x0000_s2058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4034,7 +4034,7 @@
                   <a14:compatExt spid="_x0000_s2059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4101,7 +4101,7 @@
                   <a14:compatExt spid="_x0000_s2060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4168,7 +4168,7 @@
                   <a14:compatExt spid="_x0000_s2061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4235,7 +4235,7 @@
                   <a14:compatExt spid="_x0000_s2062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4302,7 +4302,7 @@
                   <a14:compatExt spid="_x0000_s2063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4369,7 +4369,7 @@
                   <a14:compatExt spid="_x0000_s2064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4436,7 +4436,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4504,7 +4504,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4571,7 +4571,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4638,7 +4638,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000030C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4705,7 +4705,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000040C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000040C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4772,7 +4772,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000050C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4839,7 +4839,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000060C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4906,7 +4906,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000070C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000070C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4973,7 +4973,7 @@
                   <a14:compatExt spid="_x0000_s3080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000080C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000080C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5040,7 +5040,7 @@
                   <a14:compatExt spid="_x0000_s3081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000090C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000090C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5107,7 +5107,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5175,7 +5175,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5242,7 +5242,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5309,7 +5309,7 @@
                   <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5376,7 +5376,7 @@
                   <a14:compatExt spid="_x0000_s4100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5443,7 +5443,7 @@
                   <a14:compatExt spid="_x0000_s4101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5510,7 +5510,7 @@
                   <a14:compatExt spid="_x0000_s4102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5577,7 +5577,7 @@
                   <a14:compatExt spid="_x0000_s4103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5644,7 +5644,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5712,7 +5712,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5779,7 +5779,7 @@
                   <a14:compatExt spid="_x0000_s5123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5846,7 +5846,7 @@
                   <a14:compatExt spid="_x0000_s5124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5913,7 +5913,7 @@
                   <a14:compatExt spid="_x0000_s5125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5980,7 +5980,7 @@
                   <a14:compatExt spid="_x0000_s5126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6047,7 +6047,7 @@
                   <a14:compatExt spid="_x0000_s5127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6114,7 +6114,7 @@
                   <a14:compatExt spid="_x0000_s5128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6181,7 +6181,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6249,7 +6249,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6316,7 +6316,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6383,7 +6383,7 @@
                   <a14:compatExt spid="_x0000_s6147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6450,7 +6450,7 @@
                   <a14:compatExt spid="_x0000_s6148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6517,7 +6517,7 @@
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6584,7 +6584,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6652,7 +6652,7 @@
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000011C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000011C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6719,7 +6719,7 @@
                   <a14:compatExt spid="_x0000_s7170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000021C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000021C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6786,7 +6786,7 @@
                   <a14:compatExt spid="_x0000_s7171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000031C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000031C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6853,7 +6853,7 @@
                   <a14:compatExt spid="_x0000_s7172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000041C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000041C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7472,7 +7472,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -7962,7 +7962,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -8405,7 +8405,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -8783,7 +8783,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9499,7 +9499,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
